--- a/public/template_matkul.xlsx
+++ b/public/template_matkul.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Aplikasi\laragon\www\kompenjti\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BC0D10-31E6-4367-B5B0-8DFE85D98B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9038AB-552B-44AD-9FDE-CA0A807A4F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{19F022D7-C5D6-46DD-B6E8-7923E45B4719}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>matkul_nama</t>
+  </si>
+  <si>
+    <t>matkul_kode</t>
   </si>
 </sst>
 </file>
@@ -380,19 +383,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFEB1520-19F0-4E1B-B6D4-41C2C9145044}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
